--- a/mf-intelligence/data/processed/quant/quant_Commodities_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_Commodities_Fund_Equity_Holdings_Comparison.xlsx
@@ -451,17 +451,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Jan_2026</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Nov_2025</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Oct_2025</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -478,12 +478,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>INE371A01025</t>
+          <t>INE931S01010</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Graphite India Limited</t>
+          <t>Adani Energy Solutions Limited</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -492,30 +492,30 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>10.366244</v>
+        <v>9.512864</v>
       </c>
       <c r="E2" t="n">
-        <v>8.969113</v>
+        <v>9.812552999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4.600338</v>
       </c>
       <c r="G2" t="n">
-        <v>1.397131</v>
+        <v>-0.299688999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>10.366244</v>
+        <v>4.912526000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>INE931S01010</t>
+          <t>INE423A01024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Adani Energy Solutions Limited</t>
+          <t>Adani Enterprises Limited</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -524,30 +524,30 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>9.812552999999999</v>
+        <v>9.024507</v>
       </c>
       <c r="E3" t="n">
-        <v>4.600338</v>
+        <v>8.987818000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>2.438588</v>
+        <v>1.884378</v>
       </c>
       <c r="G3" t="n">
-        <v>5.212215</v>
+        <v>0.03668899999999908</v>
       </c>
       <c r="H3" t="n">
-        <v>7.373964999999999</v>
+        <v>7.140129</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>INE423A01024</t>
+          <t>INE371A01025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Adani Enterprises Limited</t>
+          <t>Graphite India Limited</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,19 +556,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>8.987818000000001</v>
+        <v>8.991999</v>
       </c>
       <c r="E4" t="n">
-        <v>1.884378</v>
+        <v>10.366244</v>
       </c>
       <c r="F4" t="n">
-        <v>1.919013</v>
+        <v>8.969113</v>
       </c>
       <c r="G4" t="n">
-        <v>7.103440000000001</v>
+        <v>-1.374245</v>
       </c>
       <c r="H4" t="n">
-        <v>7.068805000000001</v>
+        <v>0.02288599999999974</v>
       </c>
     </row>
     <row r="5">
@@ -588,19 +588,19 @@
         </is>
       </c>
       <c r="D5" t="n">
+        <v>8.815982</v>
+      </c>
+      <c r="E5" t="n">
         <v>8.948149000000001</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>9.243482999999999</v>
       </c>
-      <c r="F5" t="n">
-        <v>9.409195</v>
-      </c>
       <c r="G5" t="n">
-        <v>-0.2953339999999987</v>
+        <v>-0.1321670000000008</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.4610459999999996</v>
+        <v>-0.4275009999999995</v>
       </c>
     </row>
     <row r="6">
@@ -620,30 +620,30 @@
         </is>
       </c>
       <c r="D6" t="n">
+        <v>8.211117</v>
+      </c>
+      <c r="E6" t="n">
         <v>8.830628000000001</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>5.478523</v>
       </c>
-      <c r="F6" t="n">
-        <v>5.482282</v>
-      </c>
       <c r="G6" t="n">
-        <v>3.352105000000001</v>
+        <v>-0.619511000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>3.348346000000001</v>
+        <v>2.732594</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>INE267A01025</t>
+          <t>INE079A01024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hindustan Zinc Limited</t>
+          <t>Ambuja Cements Ltd</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -652,30 +652,30 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>6.836897</v>
+        <v>5.6717</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>5.557017</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>6.836897</v>
+        <v>0.1146830000000003</v>
       </c>
       <c r="H7" t="n">
-        <v>6.836897</v>
+        <v>5.6717</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>INE079A01024</t>
+          <t>INE331A01037</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ambuja Cements Ltd</t>
+          <t>The Ramco Cements Limited</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>5.557017</v>
+        <v>4.791299</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -693,10 +693,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>5.557017</v>
+        <v>4.791299</v>
       </c>
       <c r="H8" t="n">
-        <v>5.557017</v>
+        <v>4.791299</v>
       </c>
     </row>
     <row r="9">
@@ -716,30 +716,30 @@
         </is>
       </c>
       <c r="D9" t="n">
+        <v>4.422661</v>
+      </c>
+      <c r="E9" t="n">
         <v>4.310524</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>4.309386</v>
       </c>
-      <c r="F9" t="n">
-        <v>4.530184</v>
-      </c>
       <c r="G9" t="n">
-        <v>0.001138000000000083</v>
+        <v>0.1121369999999997</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.2196600000000002</v>
+        <v>0.1132749999999998</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>INE628A01036</t>
+          <t>INE081A01020</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>UPL Limited</t>
+          <t>Tata Steel Limited</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2.966176</v>
+        <v>3.04389</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -757,21 +757,21 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>2.966176</v>
+        <v>3.04389</v>
       </c>
       <c r="H10" t="n">
-        <v>2.966176</v>
+        <v>3.04389</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>INE257A01026</t>
+          <t>INE628A01036</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Bharat Heavy Electricals Ltd</t>
+          <t>UPL Limited</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -780,30 +780,30 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2.903893</v>
+        <v>2.922882</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>2.966176</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.903893</v>
+        <v>-0.04329399999999994</v>
       </c>
       <c r="H11" t="n">
-        <v>2.903893</v>
+        <v>2.922882</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>INE200A01026</t>
+          <t>INE090A01021</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>GE Vernova T&amp;D India Limited</t>
+          <t>ICICI Bank Limited</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2.837839</v>
+        <v>2.717233</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.837839</v>
+        <v>2.717233</v>
       </c>
       <c r="H12" t="n">
-        <v>2.837839</v>
+        <v>2.717233</v>
       </c>
     </row>
     <row r="13">
@@ -844,30 +844,30 @@
         </is>
       </c>
       <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
         <v>2.097552</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>2.164396</v>
       </c>
-      <c r="F13" t="n">
-        <v>9.571446999999999</v>
-      </c>
       <c r="G13" t="n">
-        <v>-0.06684400000000013</v>
+        <v>-2.097552</v>
       </c>
       <c r="H13" t="n">
-        <v>-7.473894999999999</v>
+        <v>-2.164396</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>INE245A01021</t>
+          <t>INE813H01021</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Tata Power Company Limited</t>
+          <t>Torrent Power Limited</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -876,30 +876,30 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.895742</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>9.949608</v>
+        <v>1.246209</v>
       </c>
       <c r="F14" t="n">
-        <v>9.665713999999999</v>
+        <v>1.25413</v>
       </c>
       <c r="G14" t="n">
-        <v>-8.053865999999999</v>
+        <v>-1.246209</v>
       </c>
       <c r="H14" t="n">
-        <v>-7.769971999999999</v>
+        <v>-1.25413</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>INE075A01022</t>
+          <t>INE752E01010</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Wipro Ltd</t>
+          <t>Power Grid Corporation of India Limited</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -908,30 +908,30 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.816168</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1.003754</v>
       </c>
       <c r="G15" t="n">
-        <v>1.816168</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1.816168</v>
+        <v>-1.003754</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>INE813H01021</t>
+          <t>INE423A20016</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Torrent Power Limited</t>
+          <t>Adani Enterprises Limited Rights</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -940,30 +940,30 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.246209</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1.25413</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>0.043863</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.007921000000000067</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1.246209</v>
+        <v>-0.043863</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>INE752E01010</t>
+          <t>INE075A01022</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Power Grid Corporation of India Limited</t>
+          <t>Wipro Ltd</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -975,27 +975,27 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.003754</v>
+        <v>1.816168</v>
       </c>
       <c r="F17" t="n">
-        <v>1.002811</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.003754</v>
+        <v>-1.816168</v>
       </c>
       <c r="H17" t="n">
-        <v>-1.002811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>INE213A01029</t>
+          <t>INE267A01025</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Oil and Natural Gas Corporation Ltd.</t>
+          <t>Hindustan Zinc Limited</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1007,27 +1007,27 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>7.554846</v>
+        <v>6.836897</v>
       </c>
       <c r="F18" t="n">
-        <v>7.423331</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.554846</v>
+        <v>-6.836897</v>
       </c>
       <c r="H18" t="n">
-        <v>-7.423331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>INE462A01022</t>
+          <t>INE257A01026</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Bayer Cropscience Ltd</t>
+          <t>Bharat Heavy Electricals Ltd</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1039,27 +1039,27 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>2.903893</v>
       </c>
       <c r="F19" t="n">
-        <v>7.250817</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>-2.903893</v>
       </c>
       <c r="H19" t="n">
-        <v>-7.250817</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>INE423A20016</t>
+          <t>INE245A01021</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Adani Enterprises Limited Rights</t>
+          <t>Tata Power Company Limited</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1071,27 +1071,27 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.043863</v>
+        <v>1.895742</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>9.949608</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.043863</v>
+        <v>-1.895742</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-9.949608</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>INE129A01019</t>
+          <t>INE213A01029</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>GAIL (India) Limited</t>
+          <t>Oil and Natural Gas Corporation Ltd.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1103,27 +1103,27 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>6.487008</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>6.301544</v>
+        <v>7.554846</v>
       </c>
       <c r="G21" t="n">
-        <v>-6.487008</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>-6.301544</v>
+        <v>-7.554846</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>INE296A01032</t>
+          <t>INE200A01026</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Bajaj Finance Limited</t>
+          <t>GE Vernova T&amp;D India Limited</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1135,27 +1135,27 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>9.368145</v>
+        <v>2.837839</v>
       </c>
       <c r="F22" t="n">
-        <v>8.812977999999999</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>-9.368145</v>
+        <v>-2.837839</v>
       </c>
       <c r="H22" t="n">
-        <v>-8.812977999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>INE258G01013</t>
+          <t>INE129A01019</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Sumitomo Chemical India Limited</t>
+          <t>GAIL (India) Limited</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1170,24 +1170,24 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>4.134973</v>
+        <v>6.487008</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>-4.134973</v>
+        <v>-6.487008</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>INE373A01013</t>
+          <t>INE296A01032</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BASF India Ltd</t>
+          <t>Bajaj Finance Limited</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1202,13 +1202,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>2.97225</v>
+        <v>9.368145</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>-2.97225</v>
+        <v>-9.368145</v>
       </c>
     </row>
   </sheetData>

--- a/mf-intelligence/data/processed/quant/quant_Commodities_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_Commodities_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,25 +451,30 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Jan_2026</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Nov_2025</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Oct_2025</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MoM</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>QoQ</t>
         </is>
@@ -491,20 +496,25 @@
           <t>quant Commodities Fund</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>9.512864</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>9.812552999999999</v>
       </c>
-      <c r="F2" t="n">
-        <v>4.600338</v>
-      </c>
       <c r="G2" t="n">
+        <v>2.438588</v>
+      </c>
+      <c r="H2" t="n">
         <v>-0.299688999999999</v>
       </c>
-      <c r="H2" t="n">
-        <v>4.912526000000001</v>
+      <c r="I2" t="n">
+        <v>7.074276</v>
       </c>
     </row>
     <row r="3">
@@ -523,20 +533,25 @@
           <t>quant Commodities Fund</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>9.024507</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>8.987818000000001</v>
       </c>
-      <c r="F3" t="n">
-        <v>1.884378</v>
-      </c>
       <c r="G3" t="n">
+        <v>1.919013</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.03668899999999908</v>
       </c>
-      <c r="H3" t="n">
-        <v>7.140129</v>
+      <c r="I3" t="n">
+        <v>7.105494</v>
       </c>
     </row>
     <row r="4">
@@ -555,20 +570,25 @@
           <t>quant Commodities Fund</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
         <v>8.991999</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>10.366244</v>
       </c>
-      <c r="F4" t="n">
-        <v>8.969113</v>
-      </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>-1.374245</v>
       </c>
-      <c r="H4" t="n">
-        <v>0.02288599999999974</v>
+      <c r="I4" t="n">
+        <v>8.991999</v>
       </c>
     </row>
     <row r="5">
@@ -587,20 +607,25 @@
           <t>quant Commodities Fund</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
         <v>8.815982</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>8.948149000000001</v>
       </c>
-      <c r="F5" t="n">
-        <v>9.243482999999999</v>
-      </c>
       <c r="G5" t="n">
+        <v>9.409195</v>
+      </c>
+      <c r="H5" t="n">
         <v>-0.1321670000000008</v>
       </c>
-      <c r="H5" t="n">
-        <v>-0.4275009999999995</v>
+      <c r="I5" t="n">
+        <v>-0.5932130000000004</v>
       </c>
     </row>
     <row r="6">
@@ -619,20 +644,25 @@
           <t>quant Commodities Fund</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
         <v>8.211117</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>8.830628000000001</v>
       </c>
-      <c r="F6" t="n">
-        <v>5.478523</v>
-      </c>
       <c r="G6" t="n">
+        <v>5.482282</v>
+      </c>
+      <c r="H6" t="n">
         <v>-0.619511000000001</v>
       </c>
-      <c r="H6" t="n">
-        <v>2.732594</v>
+      <c r="I6" t="n">
+        <v>2.728835</v>
       </c>
     </row>
     <row r="7">
@@ -651,19 +681,24 @@
           <t>quant Commodities Fund</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
         <v>5.6717</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>5.557017</v>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
       <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.1146830000000003</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>5.6717</v>
       </c>
     </row>
@@ -683,21 +718,26 @@
           <t>quant Commodities Fund</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
         <v>4.791299</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.791299</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>4.791299</v>
       </c>
+      <c r="I8" t="n">
+        <v>4.791299</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -715,20 +755,25 @@
           <t>quant Commodities Fund</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Adding</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
         <v>4.422661</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>4.310524</v>
       </c>
-      <c r="F9" t="n">
-        <v>4.309386</v>
-      </c>
       <c r="G9" t="n">
+        <v>4.530184</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.1121369999999997</v>
       </c>
-      <c r="H9" t="n">
-        <v>0.1132749999999998</v>
+      <c r="I9" t="n">
+        <v>-0.1075230000000005</v>
       </c>
     </row>
     <row r="10">
@@ -747,21 +792,26 @@
           <t>quant Commodities Fund</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
         <v>3.04389</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>3.04389</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>3.04389</v>
       </c>
+      <c r="I10" t="n">
+        <v>3.04389</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -779,19 +829,24 @@
           <t>quant Commodities Fund</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
         <v>2.922882</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>2.966176</v>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
         <v>-0.04329399999999994</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>2.922882</v>
       </c>
     </row>
@@ -811,31 +866,36 @@
           <t>quant Commodities Fund</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
         <v>2.717233</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.717233</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>2.717233</v>
       </c>
+      <c r="I12" t="n">
+        <v>2.717233</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>INE814H01029</t>
+          <t>INE373A01013</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Adani Power Limited</t>
+          <t>BASF India Ltd</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -843,31 +903,36 @@
           <t>quant Commodities Fund</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>0</v>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E13" t="n">
-        <v>2.097552</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>2.164396</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.097552</v>
+        <v>2.97225</v>
       </c>
       <c r="H13" t="n">
-        <v>-2.164396</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-2.97225</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>INE813H01021</t>
+          <t>INE814H01029</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Torrent Power Limited</t>
+          <t>Adani Power Limited</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -875,31 +940,36 @@
           <t>quant Commodities Fund</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E14" t="n">
-        <v>1.246209</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.25413</v>
+        <v>2.097552</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.246209</v>
+        <v>9.571446999999999</v>
       </c>
       <c r="H14" t="n">
-        <v>-1.25413</v>
+        <v>-2.097552</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-9.571446999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>INE752E01010</t>
+          <t>INE813H01021</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Power Grid Corporation of India Limited</t>
+          <t>Torrent Power Limited</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -907,31 +977,36 @@
           <t>quant Commodities Fund</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>0</v>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1.003754</v>
+        <v>1.246209</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>-1.003754</v>
+        <v>-1.246209</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>INE423A20016</t>
+          <t>INE752E01010</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Adani Enterprises Limited Rights</t>
+          <t>Power Grid Corporation of India Limited</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -939,31 +1014,36 @@
           <t>quant Commodities Fund</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>0</v>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.043863</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1.002811</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.043863</v>
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-1.002811</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>INE075A01022</t>
+          <t>INE462A01022</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Wipro Ltd</t>
+          <t>Bayer Cropscience Ltd</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -971,31 +1051,36 @@
           <t>quant Commodities Fund</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>0</v>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E17" t="n">
-        <v>1.816168</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.816168</v>
+        <v>7.250817</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-7.250817</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>INE267A01025</t>
+          <t>INE075A01022</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Hindustan Zinc Limited</t>
+          <t>Wipro Ltd</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1003,31 +1088,36 @@
           <t>quant Commodities Fund</t>
         </is>
       </c>
-      <c r="D18" t="n">
-        <v>0</v>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E18" t="n">
-        <v>6.836897</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1.816168</v>
       </c>
       <c r="G18" t="n">
-        <v>-6.836897</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
+        <v>-1.816168</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>INE257A01026</t>
+          <t>INE267A01025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Bharat Heavy Electricals Ltd</t>
+          <t>Hindustan Zinc Limited</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1035,31 +1125,36 @@
           <t>quant Commodities Fund</t>
         </is>
       </c>
-      <c r="D19" t="n">
-        <v>0</v>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E19" t="n">
-        <v>2.903893</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>6.836897</v>
       </c>
       <c r="G19" t="n">
-        <v>-2.903893</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
+        <v>-6.836897</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>INE245A01021</t>
+          <t>INE258G01013</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Tata Power Company Limited</t>
+          <t>Sumitomo Chemical India Limited</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1067,31 +1162,36 @@
           <t>quant Commodities Fund</t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E20" t="n">
-        <v>1.895742</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>9.949608</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.895742</v>
+        <v>4.134973</v>
       </c>
       <c r="H20" t="n">
-        <v>-9.949608</v>
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-4.134973</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>INE213A01029</t>
+          <t>INE257A01026</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Oil and Natural Gas Corporation Ltd.</t>
+          <t>Bharat Heavy Electricals Ltd</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1099,31 +1199,36 @@
           <t>quant Commodities Fund</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>0</v>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>7.554846</v>
+        <v>2.903893</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>-7.554846</v>
+        <v>-2.903893</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>INE200A01026</t>
+          <t>INE245A01021</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>GE Vernova T&amp;D India Limited</t>
+          <t>Tata Power Company Limited</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1131,31 +1236,36 @@
           <t>quant Commodities Fund</t>
         </is>
       </c>
-      <c r="D22" t="n">
-        <v>0</v>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E22" t="n">
-        <v>2.837839</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1.895742</v>
       </c>
       <c r="G22" t="n">
-        <v>-2.837839</v>
+        <v>9.665713999999999</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>-1.895742</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-9.665713999999999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>INE129A01019</t>
+          <t>INE213A01029</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>GAIL (India) Limited</t>
+          <t>Oil and Natural Gas Corporation Ltd.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1163,52 +1273,136 @@
           <t>quant Commodities Fund</t>
         </is>
       </c>
-      <c r="D23" t="n">
-        <v>0</v>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>6.487008</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>7.423331</v>
       </c>
       <c r="H23" t="n">
-        <v>-6.487008</v>
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-7.423331</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>INE200A01026</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>GE Vernova T&amp;D India Limited</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>quant Commodities Fund</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2.837839</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-2.837839</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>INE129A01019</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>GAIL (India) Limited</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>quant Commodities Fund</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>6.301544</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-6.301544</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>INE296A01032</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>Bajaj Finance Limited</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>quant Commodities Fund</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>9.368145</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>-9.368145</v>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>quant Commodities Fund</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>8.812977999999999</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-8.812977999999999</v>
       </c>
     </row>
   </sheetData>

--- a/mf-intelligence/data/processed/quant/quant_Commodities_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_Commodities_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,35 +446,40 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Industry</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Mutual Fund</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Jan_2026</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Oct_2025</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>MoM</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>QoQ</t>
         </is>
@@ -493,27 +498,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>quant Commodities Fund</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>quant Commodities Fund</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>9.512864</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>9.812552999999999</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>2.438588</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>-0.299688999999999</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>7.074276</v>
       </c>
     </row>
@@ -530,27 +540,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>quant Commodities Fund</t>
+          <t>Metals &amp; Minerals Trading</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>quant Commodities Fund</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>9.024507</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>8.987818000000001</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>1.919013</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>0.03668899999999908</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>7.105494</v>
       </c>
     </row>
@@ -567,27 +582,32 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>quant Commodities Fund</t>
+          <t>Industrial Products</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>quant Commodities Fund</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>8.991999</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>10.366244</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>-1.374245</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>8.991999</v>
       </c>
     </row>
@@ -604,27 +624,32 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>quant Commodities Fund</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>quant Commodities Fund</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>8.815982</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>8.948149000000001</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>9.409195</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>-0.1321670000000008</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>-0.5932130000000004</v>
       </c>
     </row>
@@ -641,27 +666,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>quant Commodities Fund</t>
+          <t>Minerals &amp; Mining</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>quant Commodities Fund</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>8.211117</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>8.830628000000001</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>5.482282</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>-0.619511000000001</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>2.728835</v>
       </c>
     </row>
@@ -678,27 +708,32 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>quant Commodities Fund</t>
+          <t>Cement &amp; Cement Products</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>quant Commodities Fund</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>5.6717</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>5.557017</v>
       </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0.1146830000000003</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>5.6717</v>
       </c>
     </row>
@@ -715,29 +750,34 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>quant Commodities Fund</t>
+          <t>Cement &amp; Cement Products</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>quant Commodities Fund</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>4.791299</v>
       </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>4.791299</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>4.791299</v>
       </c>
+      <c r="J8" t="n">
+        <v>4.791299</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -752,27 +792,32 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>quant Commodities Fund</t>
+          <t>Industrial Products</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>quant Commodities Fund</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Adding</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>4.422661</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>4.310524</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>4.530184</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>0.1121369999999997</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>-0.1075230000000005</v>
       </c>
     </row>
@@ -789,29 +834,34 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>quant Commodities Fund</t>
+          <t>Ferrous Metals</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>quant Commodities Fund</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>3.04389</v>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>3.04389</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>3.04389</v>
       </c>
+      <c r="J10" t="n">
+        <v>3.04389</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -826,27 +876,32 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>quant Commodities Fund</t>
+          <t>Fertilizers &amp; Agrochemicals</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>quant Commodities Fund</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>2.922882</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>2.966176</v>
       </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>-0.04329399999999994</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>2.922882</v>
       </c>
     </row>
@@ -863,29 +918,34 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>quant Commodities Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>quant Commodities Fund</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>2.717233</v>
       </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>2.717233</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>2.717233</v>
       </c>
+      <c r="J12" t="n">
+        <v>2.717233</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -900,27 +960,32 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>quant Commodities Fund</t>
+          <t>Chemicals &amp; Petrochemicals</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>quant Commodities Fund</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
         <v>2.97225</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>-2.97225</v>
       </c>
     </row>
@@ -937,27 +1002,32 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>quant Commodities Fund</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>quant Commodities Fund</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
         <v>2.097552</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>9.571446999999999</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>-2.097552</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>-9.571446999999999</v>
       </c>
     </row>
@@ -974,27 +1044,32 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>quant Commodities Fund</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>quant Commodities Fund</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
       <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
         <v>1.246209</v>
       </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>-1.246209</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1011,27 +1086,32 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>quant Commodities Fund</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>quant Commodities Fund</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
         <v>1.002811</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
         <v>-1.002811</v>
       </c>
     </row>
@@ -1048,27 +1128,32 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>quant Commodities Fund</t>
+          <t>Fertilizers &amp; Agrochemicals</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>quant Commodities Fund</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
         <v>7.250817</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
         <v>-7.250817</v>
       </c>
     </row>
@@ -1085,27 +1170,32 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>quant Commodities Fund</t>
+          <t>IT - Software</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>quant Commodities Fund</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
       <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
         <v>1.816168</v>
       </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>-1.816168</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1122,27 +1212,32 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>quant Commodities Fund</t>
+          <t>Non - Ferrous Metals</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>quant Commodities Fund</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
       <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
         <v>6.836897</v>
       </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>-6.836897</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1159,27 +1254,32 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>quant Commodities Fund</t>
+          <t>Fertilizers &amp; Agrochemicals</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>quant Commodities Fund</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
         <v>4.134973</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
         <v>-4.134973</v>
       </c>
     </row>
@@ -1196,27 +1296,32 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>quant Commodities Fund</t>
+          <t>Electrical Equipment</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>quant Commodities Fund</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
       <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
         <v>2.903893</v>
       </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>-2.903893</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1233,27 +1338,32 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>quant Commodities Fund</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>quant Commodities Fund</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
       <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
         <v>1.895742</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>9.665713999999999</v>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
         <v>-1.895742</v>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>-9.665713999999999</v>
       </c>
     </row>
@@ -1270,27 +1380,32 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>quant Commodities Fund</t>
+          <t>Oil</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>quant Commodities Fund</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
         <v>7.423331</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
         <v>-7.423331</v>
       </c>
     </row>
@@ -1307,27 +1422,32 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>quant Commodities Fund</t>
+          <t>Electrical Equipment</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>quant Commodities Fund</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
       <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
         <v>2.837839</v>
       </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>-2.837839</v>
       </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,27 +1464,32 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>quant Commodities Fund</t>
+          <t>Gas</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>quant Commodities Fund</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
         <v>6.301544</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
         <v>-6.301544</v>
       </c>
     </row>
@@ -1381,27 +1506,32 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>quant Commodities Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>quant Commodities Fund</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>8.812977999999999</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
         <v>-8.812977999999999</v>
       </c>
     </row>
